--- a/moyusi/Keywords/Web/资料配置.xlsx
+++ b/moyusi/Keywords/Web/资料配置.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="115">
   <si>
     <t>操作类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,10 +219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击-“收缩”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检查点_文本存在</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,14 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>el-tree-node</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if_id包含</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>el-icon-edit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -320,14 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>品牌1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点-“品牌1”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击-确定按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -348,121 +327,161 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>品牌1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击-修改品牌名称输入框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>自动化第二集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化第三集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-第三级子集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-第二级子集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击_xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击_xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-icon-delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-删除按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先删除子品牌</t>
+  </si>
+  <si>
+    <t>检查点-删除提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-删除提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if_文本包含</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部品牌</t>
+  </si>
+  <si>
+    <t>if_文本包含</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>el-icon-edit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自动化第二集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动化第三集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-第三级子集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-第二级子集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IF结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if开始</t>
+    <t>点击-修改品牌名称按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class='coll-list']/div/div/div[2]/div[1]/div[1]/div[1]/div[1]/div[1]/div/input</t>
+  </si>
+  <si>
+    <t>//*[@class='coll-list']/div/div/div[2]/div[1]/div[1]/div[1]/div[1]/div[1]/div/button/span</t>
+  </si>
+  <si>
+    <t>//*[@class='coll-list']/div/div/div[2]/div[1]/div[1]/div[1]/div[1]/div[2]/button[3]/span</t>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-“品牌”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class='coll-list']/div/div/div[2]/div[1]/div[2]/div[1]/div[1]/div/div/div[1]/div/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class='coll-list']/div/div/div[2]/div[1]/div[2]/div[1]/div[1]/div/div/div[1]/div/button[1]</t>
+  </si>
+  <si>
+    <t>//*[@class='coll-list']/div/div/div[2]/div[1]/div[2]/div[1]/div[1]/div/div/div[2]/button[3]/span</t>
+  </si>
+  <si>
+    <t>检查点-“品牌”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class='coll-list']/div/div/div[2]/div[1]/div[2]/div[1]/div[2]/div[1]/div[1]/div[1]/div[1]/div[1]/div[1]/input</t>
+  </si>
+  <si>
+    <t>//*[@class='coll-list']/div/div/div[2]/div[1]/div[2]/div[1]/div[2]/div[1]/div[1]/div[1]/div[1]/div[1]/div[1]/button[1]/span</t>
+  </si>
+  <si>
+    <t>该品牌与门店关联,无法删除</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该品牌与门店关联</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无法删除</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>if结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div[2]/div/div[2]/div[2]/div[2]/div/div[1]/div[2]/div[5]/div[2]/div/div[1]/div/div/div[1]/div/input</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div[2]/div/div[2]/div[2]/div[2]/div/div[1]/div[2]/div[5]/div[2]/div/div[2]/div/div[1]/div/div/div[1]/div/input</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div[2]/div/div[2]/div[2]/div[2]/div/div[1]/div[2]/div[5]/div[1]/div/div/div[1]/div/button[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div[2]/div/div[2]/div[2]/div[2]/div/div[1]/div[2]/div[5]/div[2]/div/div[1]/div/div/div[1]/div/button[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div[2]/div/div[2]/div[2]/div[2]/div/div[1]/div[2]/div[5]/div[1]/div/div/div[1]/div/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div[2]/div/div[2]/div[2]/div[2]/div/div[1]/div[2]/div[5]/div[1]/div/div/div[1]/div/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击_xpath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击_xpath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div[2]/div/div[2]/div[2]/div[2]/div/div[1]/div[2]/div[5]/div[1]/div/div/div[2]/button[3]</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div[2]/div/div[2]/div[2]/div[2]/div/div[1]/div[2]/div[5]/div[2]/div/div[1]/div/div/div[2]/button[3]</t>
-  </si>
-  <si>
-    <t>//*[@class='el-tree-node__expand-icon el-icon-caret-right expanded']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div[2]/div/div[2]/div[2]/div[2]/div/div[1]/div[2]/div[5]/div[2]/div/div[2]/div/div[1]/div/div/div[1]/div/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div[2]/div/div[2]/div[2]/div[2]/div/div[1]/div[2]/div[5]/div[2]/div/div[2]/div/div[1]/div/div/div[1]/div/button[1]/span</t>
-  </si>
-  <si>
-    <t>el-icon-delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-删除按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请先删除子品牌</t>
-  </si>
-  <si>
-    <t>检查点-删除提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点-删除提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if_文本包含</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +489,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,6 +526,20 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF56C6C"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -540,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -578,6 +611,7 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -858,18 +892,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:XFD63"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="100.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="72.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="3.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="33.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1"/>
@@ -877,7 +911,7 @@
     <col min="9" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -903,7 +937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="7" customFormat="1" ht="15.6" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -916,7 +950,7 @@
       </c>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="11" customFormat="1" ht="14.25" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -929,7 +963,7 @@
       </c>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
@@ -944,7 +978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -955,7 +989,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
@@ -969,7 +1003,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -983,7 +1017,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -994,7 +1028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
@@ -1008,7 +1042,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
@@ -1019,7 +1053,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
@@ -1032,7 +1066,7 @@
       </c>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
@@ -1052,7 +1086,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -1060,13 +1094,13 @@
         <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" ht="16.149999999999999" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>22</v>
       </c>
@@ -1077,7 +1111,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="11" customFormat="1" ht="14.45" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>7</v>
       </c>
@@ -1090,96 +1124,96 @@
       </c>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="2" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>97</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="E19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="A22" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>73</v>
-      </c>
       <c r="E22" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16.149999999999999" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>22</v>
       </c>
@@ -1190,7 +1224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="11" t="s">
         <v>7</v>
       </c>
@@ -1203,7 +1237,7 @@
       </c>
       <c r="F24" s="14"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="7" t="s">
         <v>35</v>
       </c>
@@ -1211,9 +1245,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="16.149999999999999" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>18</v>
@@ -1222,7 +1256,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" s="11" customFormat="1" ht="14.45" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>7</v>
       </c>
@@ -1235,96 +1269,96 @@
       </c>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" s="2" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A28" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>62</v>
+        <v>97</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="F30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="E31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="2" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="A34" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
-        <v>73</v>
-      </c>
       <c r="E34" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -1332,7 +1366,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" s="7" customFormat="1" ht="14.45" customHeight="1">
       <c r="A36" s="7" t="s">
         <v>7</v>
       </c>
@@ -1345,7 +1379,7 @@
       </c>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="7" t="s">
         <v>37</v>
       </c>
@@ -1356,7 +1390,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="7" t="s">
         <v>37</v>
       </c>
@@ -1367,7 +1401,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" s="11" customFormat="1" ht="14.45" customHeight="1">
       <c r="A39" s="11" t="s">
         <v>7</v>
       </c>
@@ -1380,7 +1414,7 @@
       </c>
       <c r="F39" s="14"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="7" t="s">
         <v>22</v>
       </c>
@@ -1391,7 +1425,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="7" t="s">
         <v>37</v>
       </c>
@@ -1402,7 +1436,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="7" t="s">
         <v>37</v>
       </c>
@@ -1413,21 +1447,21 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C43" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="7" t="s">
         <v>9</v>
       </c>
@@ -1441,9 +1475,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>49</v>
@@ -1455,18 +1489,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="7" t="s">
         <v>33</v>
       </c>
@@ -1474,7 +1508,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" s="7" t="s">
         <v>23</v>
       </c>
@@ -1482,26 +1516,26 @@
         <v>100</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="7" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="7" customFormat="1" ht="15.6" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="11" t="s">
         <v>7</v>
       </c>
@@ -1514,7 +1548,7 @@
       </c>
       <c r="F50" s="14"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" s="7" t="s">
         <v>37</v>
       </c>
@@ -1525,7 +1559,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="11" t="s">
         <v>7</v>
       </c>
@@ -1538,46 +1572,46 @@
       </c>
       <c r="F52" s="14"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E53" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="E54" s="7" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C55" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="11" t="s">
         <v>7</v>
       </c>
@@ -1590,18 +1624,18 @@
       </c>
       <c r="F56" s="14"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="7" t="s">
         <v>33</v>
       </c>
@@ -1609,32 +1643,32 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="11" t="s">
         <v>7</v>
       </c>
@@ -1647,18 +1681,18 @@
       </c>
       <c r="F61" s="14"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="7" t="s">
         <v>37</v>
       </c>
@@ -1669,35 +1703,35 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C65" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A66" s="11" t="s">
         <v>7</v>
       </c>
@@ -1710,18 +1744,18 @@
       </c>
       <c r="F66" s="14"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="7" t="s">
         <v>33</v>
       </c>
@@ -1729,32 +1763,32 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="11" t="s">
         <v>7</v>
       </c>
@@ -1767,122 +1801,111 @@
       </c>
       <c r="F71" s="14"/>
     </row>
-    <row r="72" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A72" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C72" s="15">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="15" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="F72" s="18"/>
     </row>
-    <row r="73" spans="1:6" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" s="2" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A73" s="11" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="E73" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D74" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="F74" s="19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A75" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="C75" s="15">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="15" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="F75" s="18"/>
     </row>
-    <row r="76" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B76" s="16"/>
-      <c r="D76" s="17" t="s">
+    <row r="76" spans="1:6" s="2" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="A76" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="E76" s="15" t="s">
+      <c r="E76" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A77" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B77" s="16"/>
+      <c r="D77" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="A78" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78" s="12"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F76" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C77" s="15">
-        <v>17</v>
-      </c>
-      <c r="D77" s="17"/>
-      <c r="E77" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F77" s="18"/>
-    </row>
-    <row r="78" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B78" s="16"/>
-      <c r="D78" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="F78" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C79" s="1">
-        <v>4</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="F78" s="14"/>
+    </row>
+    <row r="79" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A79" s="1"/>
+      <c r="B79" s="16"/>
+      <c r="D79" s="17"/>
+      <c r="F79" s="18"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="E80" s="7"/>
+    </row>
+    <row r="82" spans="4:4" ht="16.5">
+      <c r="D82" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/moyusi/Keywords/Web/资料配置.xlsx
+++ b/moyusi/Keywords/Web/资料配置.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="106">
   <si>
     <t>操作类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,9 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>向下滑动</t>
-  </si>
-  <si>
     <t>点击-修改品牌名称按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,30 +224,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击-“确定”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击_xpath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>灌木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-“灌木”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灌木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点-“灌木”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>el-icon-edit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,10 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击-“增加子系列”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击-确定按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,50 +296,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>点击-修改品牌名称输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化第二集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化第三集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-第三级子集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-第二级子集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>点击_xpath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击-修改品牌名称输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动化第二集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动化第三集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-第三级子集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-第二级子集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IF结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击_xpath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击_xpath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>el-icon-delete</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -397,10 +366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>el-icon-edit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击-修改品牌名称按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,32 +373,11 @@
     <t>//*[@class='coll-list']/div/div/div[2]/div[1]/div[1]/div[1]/div[1]/div[1]/div/input</t>
   </si>
   <si>
-    <t>//*[@class='coll-list']/div/div/div[2]/div[1]/div[1]/div[1]/div[1]/div[1]/div/button/span</t>
-  </si>
-  <si>
-    <t>//*[@class='coll-list']/div/div/div[2]/div[1]/div[1]/div[1]/div[1]/div[2]/button[3]/span</t>
-  </si>
-  <si>
-    <t>品牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点-“品牌”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//*[@class='coll-list']/div/div/div[2]/div[1]/div[2]/div[1]/div[1]/div/div/div[1]/div/input</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//*[@class='coll-list']/div/div/div[2]/div[1]/div[2]/div[1]/div[1]/div/div/div[1]/div/button[1]</t>
-  </si>
-  <si>
-    <t>//*[@class='coll-list']/div/div/div[2]/div[1]/div[2]/div[1]/div[1]/div/div/div[2]/button[3]/span</t>
-  </si>
-  <si>
-    <t>检查点-“品牌”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//*[@class='coll-list']/div/div/div[2]/div[1]/div[2]/div[1]/div[2]/div[1]/div[1]/div[1]/div[1]/div[1]/div[1]/input</t>
@@ -484,12 +428,35 @@
     <t>if结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>el-icon-edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-icon-edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class='coll-list']/div/div/div[2]/div[1]/div[1]/div[1]/div[1]/div[1]/div/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-“自动化”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div[2]/div/div[2]/div[2]/div[2]/div/div[1]/div[2]/div[1]/div[1]/div/div/div[1]/div/button[1]/span</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,13 +492,6 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFF56C6C"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -573,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -611,7 +571,6 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -892,13 +851,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" style="1" customWidth="1"/>
     <col min="2" max="2" width="72.625" style="1" customWidth="1"/>
@@ -911,7 +870,7 @@
     <col min="9" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="24.95" customHeight="1">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -937,7 +896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" ht="15.6" customHeight="1">
+    <row r="2" spans="1:8" s="7" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -950,7 +909,7 @@
       </c>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" ht="14.25" customHeight="1">
+    <row r="3" spans="1:8" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -963,9 +922,9 @@
       </c>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="8"/>
       <c r="D4" s="1" t="s">
@@ -978,7 +937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -989,7 +948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1003,7 +962,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -1017,7 +976,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -1028,7 +987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
@@ -1042,7 +1001,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.149999999999999" customHeight="1">
+    <row r="10" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
@@ -1053,7 +1012,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
@@ -1066,7 +1025,7 @@
       </c>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
@@ -1080,13 +1039,13 @@
         <v>26</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -1094,13 +1053,13 @@
         <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.149999999999999" customHeight="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>22</v>
       </c>
@@ -1111,7 +1070,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="11" customFormat="1" ht="14.45" customHeight="1">
+    <row r="15" spans="1:8" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>7</v>
       </c>
@@ -1124,182 +1083,182 @@
       </c>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" ht="16.149999999999999" customHeight="1">
+    <row r="16" spans="1:8" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="7" t="s">
+      <c r="D20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E21" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="12">
+        <v>3000</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="12">
+        <v>3000</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" ht="16.149999999999999" customHeight="1">
-      <c r="A22" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="16.149999999999999" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="12">
-        <v>3000</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.149999999999999" customHeight="1">
-      <c r="A26" s="7" t="s">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="11" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A27" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="12">
-        <v>3000</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" ht="16.149999999999999" customHeight="1">
-      <c r="A28" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>71</v>
+      <c r="B29" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>60</v>
@@ -1308,604 +1267,455 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="1" t="s">
+    </row>
+    <row r="32" spans="1:6" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="7" t="s">
+      <c r="E32" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="8">
+        <v>3000</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="12">
+        <v>3000</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="7" t="s">
+      <c r="D40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" ht="16.149999999999999" customHeight="1">
-      <c r="A34" s="11" t="s">
+      <c r="E44" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A36" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="8">
-        <v>3000</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="11" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A39" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="12">
-        <v>3000</v>
-      </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="14"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>49</v>
+      <c r="B45" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="12">
+        <v>3000</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="14"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="12">
+        <v>2000</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="14"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E50" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="7" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="B51" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="7" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F49" s="10"/>
-    </row>
-    <row r="50" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A50" s="11" t="s">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B53" s="12">
         <v>3000</v>
       </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="11" t="s">
+      <c r="D53" s="13"/>
+      <c r="E53" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="14"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="F53" s="14"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="11" t="s">
+    </row>
+    <row r="55" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B55" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="14"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="12">
         <v>3000</v>
       </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="11" t="s">
+      <c r="D60" s="13"/>
+      <c r="E60" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="14"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="7" t="s">
+      <c r="F60" s="14"/>
+    </row>
+    <row r="61" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B61" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="15">
+        <v>0</v>
+      </c>
+      <c r="D61" s="17"/>
+      <c r="E61" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F61" s="18"/>
+    </row>
+    <row r="62" spans="1:6" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A56" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" s="12">
-        <v>2000</v>
-      </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="14"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E59" s="7" t="s">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" s="19" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="12">
-        <v>3000</v>
-      </c>
-      <c r="D61" s="13"/>
-      <c r="E61" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="14"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="7" t="s">
+      <c r="E63" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B64" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="15">
+        <v>2</v>
+      </c>
+      <c r="D64" s="17"/>
+      <c r="E64" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F64" s="18"/>
+    </row>
+    <row r="65" spans="1:6" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C65" s="1">
-        <v>2</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A66" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D66" s="13"/>
-      <c r="E66" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="14"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A71" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="12">
-        <v>3000</v>
-      </c>
-      <c r="D71" s="13"/>
-      <c r="E71" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="14"/>
-    </row>
-    <row r="72" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A72" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C72" s="15">
-        <v>0</v>
-      </c>
-      <c r="D72" s="17"/>
-      <c r="E72" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F72" s="18"/>
-    </row>
-    <row r="73" spans="1:6" s="2" customFormat="1" ht="16.149999999999999" customHeight="1">
-      <c r="A73" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E73" s="11" t="s">
+    </row>
+    <row r="66" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" s="16"/>
+      <c r="D66" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E66" s="15" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D74" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F74" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A75" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B75" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C75" s="15">
-        <v>2</v>
-      </c>
-      <c r="D75" s="17"/>
-      <c r="E75" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F75" s="18"/>
-    </row>
-    <row r="76" spans="1:6" s="2" customFormat="1" ht="16.149999999999999" customHeight="1">
-      <c r="A76" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D76" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A77" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B77" s="16"/>
-      <c r="D77" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F77" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A78" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B78" s="12"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F78" s="14"/>
-    </row>
-    <row r="79" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A79" s="1"/>
-      <c r="B79" s="16"/>
-      <c r="D79" s="17"/>
-      <c r="F79" s="18"/>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="E80" s="7"/>
-    </row>
-    <row r="82" spans="4:4" ht="16.5">
-      <c r="D82" s="21"/>
+      <c r="F66" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" s="12"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F67" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
